--- a/MaterialyPomocnicze/BurnDown.xlsx
+++ b/MaterialyPomocnicze/BurnDown.xlsx
@@ -137,16 +137,16 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -225,29 +225,32 @@
                 <c:pt idx="1">
                   <c:v>76</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>62</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="49890048"/>
-        <c:axId val="49891968"/>
+        <c:axId val="78583296"/>
+        <c:axId val="78584832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="49890048"/>
+        <c:axId val="78583296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49891968"/>
+        <c:crossAx val="78584832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="49891968"/>
+        <c:axId val="78584832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -255,7 +258,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49890048"/>
+        <c:crossAx val="78583296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -268,7 +271,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -597,7 +600,7 @@
   <dimension ref="A2:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -608,37 +611,37 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11">
-      <c r="A2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -669,6 +672,9 @@
       <c r="D5">
         <v>10</v>
       </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:11">
       <c r="B6" t="s">
@@ -680,6 +686,9 @@
       <c r="D6">
         <v>10</v>
       </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="B7" t="s">
@@ -691,6 +700,9 @@
       <c r="D7">
         <v>10</v>
       </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" spans="1:11">
       <c r="B8" t="s">
@@ -702,6 +714,9 @@
       <c r="D8">
         <v>10</v>
       </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="1:11">
       <c r="B9" t="s">
@@ -713,6 +728,9 @@
       <c r="D9">
         <v>10</v>
       </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="1:11">
       <c r="B10" t="s">
@@ -724,6 +742,9 @@
       <c r="D10">
         <v>10</v>
       </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" spans="1:11">
       <c r="B11" t="s">
@@ -735,60 +756,66 @@
       <c r="D11">
         <v>10</v>
       </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="4">
+      <c r="B12" s="5"/>
+      <c r="C12" s="2">
         <f>SUM(C4:C11)</f>
         <v>80</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="1">
         <v>70</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="1">
         <v>60</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="1">
         <v>50</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="1">
         <v>40</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="1">
         <v>30</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="1">
         <v>20</v>
       </c>
-      <c r="J12" s="3">
-        <v>10</v>
-      </c>
-      <c r="K12" s="3">
+      <c r="J12" s="1">
+        <v>10</v>
+      </c>
+      <c r="K12" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="33" customHeight="1">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="5">
+      <c r="B13" s="6"/>
+      <c r="C13" s="3">
         <v>80</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="4">
         <f>SUM(D4:D11)</f>
         <v>76</v>
       </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
+      <c r="E13" s="4">
+        <f t="shared" ref="E13:K13" si="0">SUM(E4:E11)</f>
+        <v>62</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/MaterialyPomocnicze/BurnDown.xlsx
+++ b/MaterialyPomocnicze/BurnDown.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="20340" windowHeight="7935"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="19440" windowHeight="7575"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -223,34 +223,34 @@
                   <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>76</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>62</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="78583296"/>
-        <c:axId val="78584832"/>
+        <c:axId val="76784384"/>
+        <c:axId val="76785920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="78583296"/>
+        <c:axId val="76784384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78584832"/>
+        <c:crossAx val="76785920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78584832"/>
+        <c:axId val="76785920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -258,7 +258,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78583296"/>
+        <c:crossAx val="76784384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -271,7 +271,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -600,7 +600,7 @@
   <dimension ref="A2:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -656,7 +656,7 @@
         <v>10</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -673,7 +673,7 @@
         <v>10</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -804,11 +804,11 @@
       </c>
       <c r="D13" s="4">
         <f>SUM(D4:D11)</f>
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E13" s="4">
-        <f t="shared" ref="E13:K13" si="0">SUM(E4:E11)</f>
-        <v>62</v>
+        <f t="shared" ref="E13" si="0">SUM(E4:E11)</f>
+        <v>70</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>

--- a/MaterialyPomocnicze/BurnDown.xlsx
+++ b/MaterialyPomocnicze/BurnDown.xlsx
@@ -228,29 +228,32 @@
                 <c:pt idx="2">
                   <c:v>70</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="76784384"/>
-        <c:axId val="76785920"/>
+        <c:axId val="79489280"/>
+        <c:axId val="79491072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76784384"/>
+        <c:axId val="79489280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76785920"/>
+        <c:crossAx val="79491072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76785920"/>
+        <c:axId val="79491072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -258,7 +261,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76784384"/>
+        <c:crossAx val="79489280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -271,7 +274,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -599,8 +602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -810,7 +813,9 @@
         <f t="shared" ref="E13" si="0">SUM(E4:E11)</f>
         <v>70</v>
       </c>
-      <c r="F13" s="4"/>
+      <c r="F13" s="4">
+        <v>70</v>
+      </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>

--- a/MaterialyPomocnicze/BurnDown.xlsx
+++ b/MaterialyPomocnicze/BurnDown.xlsx
@@ -231,29 +231,32 @@
                 <c:pt idx="3">
                   <c:v>70</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="79489280"/>
-        <c:axId val="79491072"/>
+        <c:axId val="79378688"/>
+        <c:axId val="84508672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="79489280"/>
+        <c:axId val="79378688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79491072"/>
+        <c:crossAx val="84508672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79491072"/>
+        <c:axId val="84508672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -261,7 +264,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79489280"/>
+        <c:crossAx val="79378688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -274,7 +277,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -602,8 +605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -664,6 +667,12 @@
       <c r="E4">
         <v>0</v>
       </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="B5" t="s">
@@ -678,6 +687,12 @@
       <c r="E5">
         <v>10</v>
       </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:11">
       <c r="B6" t="s">
@@ -692,6 +707,12 @@
       <c r="E6">
         <v>10</v>
       </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="B7" t="s">
@@ -706,6 +727,12 @@
       <c r="E7">
         <v>10</v>
       </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:11">
       <c r="B8" t="s">
@@ -720,6 +747,12 @@
       <c r="E8">
         <v>10</v>
       </c>
+      <c r="F8">
+        <v>10</v>
+      </c>
+      <c r="G8">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="1:11">
       <c r="B9" t="s">
@@ -734,6 +767,12 @@
       <c r="E9">
         <v>10</v>
       </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="1:11">
       <c r="B10" t="s">
@@ -748,6 +787,12 @@
       <c r="E10">
         <v>10</v>
       </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" spans="1:11">
       <c r="B11" t="s">
@@ -760,6 +805,12 @@
         <v>10</v>
       </c>
       <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="G11">
         <v>10</v>
       </c>
     </row>
@@ -810,13 +861,14 @@
         <v>80</v>
       </c>
       <c r="E13" s="4">
-        <f t="shared" ref="E13" si="0">SUM(E4:E11)</f>
         <v>70</v>
       </c>
       <c r="F13" s="4">
         <v>70</v>
       </c>
-      <c r="G13" s="4"/>
+      <c r="G13" s="4">
+        <v>40</v>
+      </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>

--- a/MaterialyPomocnicze/BurnDown.xlsx
+++ b/MaterialyPomocnicze/BurnDown.xlsx
@@ -234,29 +234,32 @@
                 <c:pt idx="4">
                   <c:v>40</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="79378688"/>
-        <c:axId val="84508672"/>
+        <c:axId val="82424192"/>
+        <c:axId val="82425728"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="79378688"/>
+        <c:axId val="82424192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84508672"/>
+        <c:crossAx val="82425728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84508672"/>
+        <c:axId val="82425728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -264,7 +267,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79378688"/>
+        <c:crossAx val="82424192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -277,7 +280,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -606,7 +609,7 @@
   <dimension ref="A2:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -673,6 +676,9 @@
       <c r="G4">
         <v>0</v>
       </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="B5" t="s">
@@ -693,6 +699,9 @@
       <c r="G5">
         <v>0</v>
       </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:11">
       <c r="B6" t="s">
@@ -713,6 +722,9 @@
       <c r="G6">
         <v>0</v>
       </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="B7" t="s">
@@ -733,6 +745,9 @@
       <c r="G7">
         <v>0</v>
       </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:11">
       <c r="B8" t="s">
@@ -753,6 +768,9 @@
       <c r="G8">
         <v>10</v>
       </c>
+      <c r="H8">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="1:11">
       <c r="B9" t="s">
@@ -773,6 +791,9 @@
       <c r="G9">
         <v>10</v>
       </c>
+      <c r="H9">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="1:11">
       <c r="B10" t="s">
@@ -793,6 +814,9 @@
       <c r="G10">
         <v>10</v>
       </c>
+      <c r="H10">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" spans="1:11">
       <c r="B11" t="s">
@@ -811,6 +835,9 @@
         <v>10</v>
       </c>
       <c r="G11">
+        <v>10</v>
+      </c>
+      <c r="H11">
         <v>10</v>
       </c>
     </row>
@@ -869,7 +896,9 @@
       <c r="G13" s="4">
         <v>40</v>
       </c>
-      <c r="H13" s="4"/>
+      <c r="H13" s="4">
+        <v>40</v>
+      </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
